--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-736516.0597110762</v>
+        <v>-739301.003625099</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12435373.08419249</v>
+        <v>12434702.24778879</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13602237.16063583</v>
+        <v>13609903.49522308</v>
       </c>
     </row>
     <row r="11">
@@ -656,73 +656,73 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>116.9725659584295</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>225.403139763615</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
         <v>263.7138800015062</v>
       </c>
-      <c r="D2" t="n">
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>263.7138800015062</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="X2" t="n">
         <v>263.7138800015062</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>115.3066195468971</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -741,22 +741,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>76.07351337205719</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>82.50979699625813</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
@@ -798,10 +798,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>239.0177450887254</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>110.4614046510455</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>92.58204993189317</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>401.0477300928578</v>
+        <v>410.1623163758334</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.0711893754162</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>215.4073971809602</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>27.69046745514669</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7684330653717</v>
+        <v>135.7515565528791</v>
       </c>
       <c r="H6" t="n">
-        <v>24.90794561877516</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>35.16676369336464</v>
+        <v>34.58570832903603</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>2.364454814889982</v>
+        <v>1.316630644515996</v>
       </c>
       <c r="S6" t="n">
-        <v>142.4266748128387</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.8160344583569</v>
+        <v>193.748010269845</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8377581271696</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1038,10 +1038,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.3140207935564</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>117.2828405472754</v>
       </c>
       <c r="S7" t="n">
-        <v>198.7226372969116</v>
+        <v>200.7573530024177</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.2430097901799</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2470022148296</v>
+        <v>129.6427940359918</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>304.0783772322153</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.466648435660961</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>131.0102280757556</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>131.6439896517645</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>254.1280050725117</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.8141901764707</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>106.737297106431</v>
+        <v>107.3735153872348</v>
       </c>
       <c r="T11" t="n">
-        <v>203.4472335891281</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9865691207434</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>99.53792876889965</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9419326130941</v>
+        <v>134.9568709253498</v>
       </c>
       <c r="H12" t="n">
-        <v>89.04119344984493</v>
+        <v>89.18546609715636</v>
       </c>
       <c r="I12" t="n">
-        <v>16.83624527011145</v>
+        <v>17.350568740318</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>127.0747914119808</v>
+        <v>127.3522640102387</v>
       </c>
       <c r="T12" t="n">
-        <v>190.4846576353608</v>
+        <v>190.5448695167773</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7833830974145</v>
+        <v>225.7843658811155</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.9775715460948</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.3261466847851</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>86.76325465033013</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.1466462951118</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>92.29713182658163</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2098902274084</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>119.8885353121978</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701361</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>135.5795121770561</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>28.54004930889326</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890332</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695611</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788181281</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>127.1562738804047</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>132.631533721669</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>39.96816871822065</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428217</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560549</v>
       </c>
     </row>
     <row r="30">
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>140.9357387834177</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3196,13 +3196,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>223.8290352905955</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652687</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808192</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892442</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>113.6427030833207</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545305</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652687</v>
+        <v>56.98118882652575</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808343</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096048</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.7014129773081</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="C2" t="n">
-        <v>670.32375641013</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D2" t="n">
-        <v>403.9460998429521</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="E2" t="n">
-        <v>403.9460998429521</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="F2" t="n">
-        <v>137.5684432757741</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
         <v>888.5149683358416</v>
@@ -4367,13 +4367,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="Y2" t="n">
-        <v>1054.855520006025</v>
+        <v>522.1002068716687</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>501.5586430357693</v>
+        <v>585.4732011160509</v>
       </c>
       <c r="C3" t="n">
-        <v>501.5586430357693</v>
+        <v>585.4732011160509</v>
       </c>
       <c r="D3" t="n">
-        <v>501.5586430357693</v>
+        <v>508.6312684170032</v>
       </c>
       <c r="E3" t="n">
-        <v>342.3211880303137</v>
+        <v>349.3938134115477</v>
       </c>
       <c r="F3" t="n">
-        <v>258.9779587411641</v>
+        <v>202.8592554384327</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5812722902314</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
         <v>21.0971104001205</v>
@@ -4410,7 +4410,7 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699344</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
         <v>338.8740072302311</v>
@@ -4431,28 +4431,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098645</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>709.4101432413021</v>
+        <v>839.7105578442525</v>
       </c>
       <c r="U3" t="n">
-        <v>709.4101432413021</v>
+        <v>839.7105578442525</v>
       </c>
       <c r="V3" t="n">
-        <v>709.4101432413021</v>
+        <v>839.7105578442525</v>
       </c>
       <c r="W3" t="n">
-        <v>709.4101432413021</v>
+        <v>585.4732011160509</v>
       </c>
       <c r="X3" t="n">
-        <v>501.5586430357693</v>
+        <v>585.4732011160509</v>
       </c>
       <c r="Y3" t="n">
-        <v>501.5586430357693</v>
+        <v>585.4732011160509</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>337.9463869104205</v>
+        <v>205.2577368622517</v>
       </c>
       <c r="C4" t="n">
-        <v>169.0102039825136</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="D4" t="n">
-        <v>169.0102039825136</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="E4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="F4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
         <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="V4" t="n">
-        <v>800.1710318001379</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="W4" t="n">
-        <v>558.7389660539507</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="X4" t="n">
-        <v>558.7389660539507</v>
+        <v>607.6987808360216</v>
       </c>
       <c r="Y4" t="n">
-        <v>337.9463869104205</v>
+        <v>386.9062016924914</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>899.6622747667807</v>
+        <v>858.1042601762736</v>
       </c>
       <c r="C5" t="n">
-        <v>530.699757826369</v>
+        <v>858.1042601762736</v>
       </c>
       <c r="D5" t="n">
-        <v>530.699757826369</v>
+        <v>858.1042601762736</v>
       </c>
       <c r="E5" t="n">
-        <v>530.699757826369</v>
+        <v>858.1042601762736</v>
       </c>
       <c r="F5" t="n">
-        <v>437.1825356729416</v>
+        <v>447.1183553866661</v>
       </c>
       <c r="G5" t="n">
-        <v>32.08381840742862</v>
+        <v>32.81298531006667</v>
       </c>
       <c r="H5" t="n">
-        <v>32.08381840742862</v>
+        <v>32.81298531006667</v>
       </c>
       <c r="I5" t="n">
-        <v>32.08381840742862</v>
+        <v>32.81298531006667</v>
       </c>
       <c r="J5" t="n">
-        <v>100.2031268183379</v>
+        <v>103.5826192495593</v>
       </c>
       <c r="K5" t="n">
-        <v>253.0348302632036</v>
+        <v>260.3864736357532</v>
       </c>
       <c r="L5" t="n">
-        <v>479.5378345481597</v>
+        <v>491.8172824050394</v>
       </c>
       <c r="M5" t="n">
-        <v>763.235506715901</v>
+        <v>780.9980865478717</v>
       </c>
       <c r="N5" t="n">
-        <v>1056.137512194934</v>
+        <v>1079.471946809791</v>
       </c>
       <c r="O5" t="n">
-        <v>1319.381308998318</v>
+        <v>1347.977088085454</v>
       </c>
       <c r="P5" t="n">
-        <v>1509.552798350565</v>
+        <v>1542.639013219285</v>
       </c>
       <c r="Q5" t="n">
-        <v>1604.190920371431</v>
+        <v>1640.649265503333</v>
       </c>
       <c r="R5" t="n">
-        <v>1604.190920371431</v>
+        <v>1640.649265503333</v>
       </c>
       <c r="S5" t="n">
-        <v>1604.190920371431</v>
+        <v>1640.649265503333</v>
       </c>
       <c r="T5" t="n">
-        <v>1604.190920371431</v>
+        <v>1428.456144922105</v>
       </c>
       <c r="U5" t="n">
-        <v>1604.190920371431</v>
+        <v>1428.456144922105</v>
       </c>
       <c r="V5" t="n">
-        <v>1273.128033027861</v>
+        <v>1210.872915446388</v>
       </c>
       <c r="W5" t="n">
-        <v>1273.128033027861</v>
+        <v>858.1042601762736</v>
       </c>
       <c r="X5" t="n">
-        <v>899.6622747667807</v>
+        <v>858.1042601762736</v>
       </c>
       <c r="Y5" t="n">
-        <v>899.6622747667807</v>
+        <v>858.1042601762736</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376.439732317424</v>
+        <v>510.6428416037031</v>
       </c>
       <c r="C6" t="n">
-        <v>376.439732317424</v>
+        <v>510.6428416037031</v>
       </c>
       <c r="D6" t="n">
-        <v>376.439732317424</v>
+        <v>510.6428416037031</v>
       </c>
       <c r="E6" t="n">
-        <v>376.439732317424</v>
+        <v>351.4053865982476</v>
       </c>
       <c r="F6" t="n">
-        <v>229.905174344309</v>
+        <v>204.8708286251325</v>
       </c>
       <c r="G6" t="n">
-        <v>92.76534296514561</v>
+        <v>67.7480442282849</v>
       </c>
       <c r="H6" t="n">
-        <v>67.60580193607979</v>
+        <v>67.7480442282849</v>
       </c>
       <c r="I6" t="n">
-        <v>32.08381840742862</v>
+        <v>32.81298531006667</v>
       </c>
       <c r="J6" t="n">
-        <v>53.83736487599278</v>
+        <v>56.1450475069076</v>
       </c>
       <c r="K6" t="n">
-        <v>417.441087118973</v>
+        <v>174.1780828024228</v>
       </c>
       <c r="L6" t="n">
-        <v>618.8459041232153</v>
+        <v>580.2387760144978</v>
       </c>
       <c r="M6" t="n">
-        <v>873.2326940879288</v>
+        <v>838.8589281082932</v>
       </c>
       <c r="N6" t="n">
-        <v>1148.760990347238</v>
+        <v>1118.732630995478</v>
       </c>
       <c r="O6" t="n">
-        <v>1378.595757403874</v>
+        <v>1409.730926288922</v>
       </c>
       <c r="P6" t="n">
-        <v>1543.725354314536</v>
+        <v>1578.050970150874</v>
       </c>
       <c r="Q6" t="n">
-        <v>1604.190920371431</v>
+        <v>1640.649265503333</v>
       </c>
       <c r="R6" t="n">
-        <v>1601.802582174573</v>
+        <v>1639.319335559378</v>
       </c>
       <c r="S6" t="n">
-        <v>1457.937254080796</v>
+        <v>1639.319335559378</v>
       </c>
       <c r="T6" t="n">
-        <v>1262.163481900638</v>
+        <v>1443.614274680747</v>
       </c>
       <c r="U6" t="n">
-        <v>1034.044534297436</v>
+        <v>1443.614274680747</v>
       </c>
       <c r="V6" t="n">
-        <v>798.8924260656936</v>
+        <v>1208.462166449004</v>
       </c>
       <c r="W6" t="n">
-        <v>544.655069337492</v>
+        <v>954.2248097208026</v>
       </c>
       <c r="X6" t="n">
-        <v>544.655069337492</v>
+        <v>746.3733095152697</v>
       </c>
       <c r="Y6" t="n">
-        <v>544.655069337492</v>
+        <v>538.6130107503159</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32.08381840742862</v>
+        <v>149.2917941924468</v>
       </c>
       <c r="C7" t="n">
-        <v>32.08381840742862</v>
+        <v>149.2917941924468</v>
       </c>
       <c r="D7" t="n">
-        <v>32.08381840742862</v>
+        <v>149.2917941924468</v>
       </c>
       <c r="E7" t="n">
-        <v>32.08381840742862</v>
+        <v>149.2917941924468</v>
       </c>
       <c r="F7" t="n">
-        <v>32.08381840742862</v>
+        <v>149.2917941924468</v>
       </c>
       <c r="G7" t="n">
-        <v>32.08381840742862</v>
+        <v>149.2917941924468</v>
       </c>
       <c r="H7" t="n">
-        <v>32.08381840742862</v>
+        <v>149.2917941924468</v>
       </c>
       <c r="I7" t="n">
-        <v>32.08381840742862</v>
+        <v>32.81298531006667</v>
       </c>
       <c r="J7" t="n">
-        <v>32.08381840742862</v>
+        <v>33.80329535000858</v>
       </c>
       <c r="K7" t="n">
-        <v>161.9206551210168</v>
+        <v>165.2675156704448</v>
       </c>
       <c r="L7" t="n">
-        <v>383.5935394590352</v>
+        <v>389.0228907366631</v>
       </c>
       <c r="M7" t="n">
-        <v>627.7056382561527</v>
+        <v>635.3306840199215</v>
       </c>
       <c r="N7" t="n">
-        <v>871.4479133830966</v>
+        <v>881.2164449257443</v>
       </c>
       <c r="O7" t="n">
-        <v>1080.567059778763</v>
+        <v>1092.315447371433</v>
       </c>
       <c r="P7" t="n">
-        <v>1235.983933740257</v>
+        <v>1249.426430214422</v>
       </c>
       <c r="Q7" t="n">
-        <v>1260.151441225069</v>
+        <v>1274.766850876282</v>
       </c>
       <c r="R7" t="n">
-        <v>1260.151441225069</v>
+        <v>1156.299335171963</v>
       </c>
       <c r="S7" t="n">
-        <v>1059.421504561522</v>
+        <v>953.5141301190162</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.421504561522</v>
+        <v>729.0262414420667</v>
       </c>
       <c r="U7" t="n">
-        <v>770.2831184859367</v>
+        <v>598.0739242339943</v>
       </c>
       <c r="V7" t="n">
-        <v>770.2831184859367</v>
+        <v>598.0739242339943</v>
       </c>
       <c r="W7" t="n">
-        <v>480.865948448976</v>
+        <v>598.0739242339943</v>
       </c>
       <c r="X7" t="n">
-        <v>252.8763975509587</v>
+        <v>370.0843733359769</v>
       </c>
       <c r="Y7" t="n">
-        <v>32.08381840742862</v>
+        <v>149.2917941924468</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>781.4578466818737</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="C8" t="n">
-        <v>781.4578466818737</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="D8" t="n">
-        <v>781.4578466818737</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="E8" t="n">
-        <v>781.4578466818737</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F8" t="n">
-        <v>774.5123459326702</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G8" t="n">
-        <v>358.8075956569591</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>54.74845165452933</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.89447953245</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V8" t="n">
-        <v>1897.831592188879</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W8" t="n">
-        <v>1545.062936918765</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X8" t="n">
-        <v>1171.597178657685</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y8" t="n">
-        <v>781.4578466818737</v>
+        <v>1251.46096678957</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495377</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508758</v>
+        <v>1233.591260505112</v>
       </c>
       <c r="N9" t="n">
-        <v>1468.399656105703</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>1800.470091281865</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,49 +4936,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>609.1284824998266</v>
+        <v>648.5734018828551</v>
       </c>
       <c r="C10" t="n">
-        <v>440.1922995719198</v>
+        <v>516.2398381699707</v>
       </c>
       <c r="D10" t="n">
-        <v>290.075660159584</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="E10" t="n">
-        <v>290.075660159584</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>290.075660159584</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4990,22 +4990,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U10" t="n">
-        <v>1347.327782578335</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="V10" t="n">
-        <v>1347.327782578335</v>
+        <v>1158.783151063346</v>
       </c>
       <c r="W10" t="n">
-        <v>1057.910612541374</v>
+        <v>869.3659810263853</v>
       </c>
       <c r="X10" t="n">
-        <v>829.9210616433568</v>
+        <v>869.3659810263853</v>
       </c>
       <c r="Y10" t="n">
-        <v>609.1284824998266</v>
+        <v>648.5734018828551</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1639.138204290653</v>
+        <v>1480.188471427153</v>
       </c>
       <c r="C11" t="n">
-        <v>1639.138204290653</v>
+        <v>1223.493516808454</v>
       </c>
       <c r="D11" t="n">
-        <v>1280.872505683902</v>
+        <v>865.2278182017037</v>
       </c>
       <c r="E11" t="n">
-        <v>895.0842530856578</v>
+        <v>479.4395656034594</v>
       </c>
       <c r="F11" t="n">
-        <v>484.0983482960502</v>
+        <v>68.45366081385185</v>
       </c>
       <c r="G11" t="n">
-        <v>69.13451983496873</v>
+        <v>68.45366081385185</v>
       </c>
       <c r="H11" t="n">
-        <v>69.13451983496873</v>
+        <v>68.45366081385185</v>
       </c>
       <c r="I11" t="n">
-        <v>69.13451983496873</v>
+        <v>68.45366081385185</v>
       </c>
       <c r="J11" t="n">
-        <v>267.049320591665</v>
+        <v>264.0225153720939</v>
       </c>
       <c r="K11" t="n">
-        <v>614.4108210524562</v>
+        <v>607.8680506052192</v>
       </c>
       <c r="L11" t="n">
-        <v>1082.245240036984</v>
+        <v>1071.340603821915</v>
       </c>
       <c r="M11" t="n">
-        <v>1634.470610643432</v>
+        <v>1618.712558320092</v>
       </c>
       <c r="N11" t="n">
-        <v>2200.245373458975</v>
+        <v>2179.555371680643</v>
       </c>
       <c r="O11" t="n">
-        <v>2721.155177254817</v>
+        <v>2695.808075459758</v>
       </c>
       <c r="P11" t="n">
-        <v>3131.238642261369</v>
+        <v>3101.916813347849</v>
       </c>
       <c r="Q11" t="n">
-        <v>3391.021499539675</v>
+        <v>3358.714816091763</v>
       </c>
       <c r="R11" t="n">
-        <v>3456.725991748436</v>
+        <v>3422.683040692593</v>
       </c>
       <c r="S11" t="n">
-        <v>3348.910540125778</v>
+        <v>3314.224944341851</v>
       </c>
       <c r="T11" t="n">
-        <v>3143.408283975144</v>
+        <v>3314.224944341851</v>
       </c>
       <c r="U11" t="n">
-        <v>2889.886496984494</v>
+        <v>3314.224944341851</v>
       </c>
       <c r="V11" t="n">
-        <v>2789.343134591666</v>
+        <v>2983.162056998281</v>
       </c>
       <c r="W11" t="n">
-        <v>2789.343134591666</v>
+        <v>2630.393401728166</v>
       </c>
       <c r="X11" t="n">
-        <v>2415.877376330586</v>
+        <v>2256.927643467086</v>
       </c>
       <c r="Y11" t="n">
-        <v>2025.738044354774</v>
+        <v>1866.788311491275</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5458619913221</v>
+        <v>941.5453407780575</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0928327101951</v>
+        <v>767.0923114969305</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1584230489439</v>
+        <v>618.1579018356792</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9209680434883</v>
+        <v>458.9204468302237</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3864100703733</v>
+        <v>312.3858888571086</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0814276329045</v>
+        <v>176.0658172153411</v>
       </c>
       <c r="H12" t="n">
-        <v>86.14082818861665</v>
+        <v>85.97948782427407</v>
       </c>
       <c r="I12" t="n">
-        <v>69.13451983496873</v>
+        <v>68.45366081385185</v>
       </c>
       <c r="J12" t="n">
-        <v>76.21567416026687</v>
+        <v>166.115283850968</v>
       </c>
       <c r="K12" t="n">
-        <v>323.6778557064544</v>
+        <v>343.0545257528987</v>
       </c>
       <c r="L12" t="n">
-        <v>702.7438386804428</v>
+        <v>718.9094300569955</v>
       </c>
       <c r="M12" t="n">
-        <v>1164.452829596014</v>
+        <v>1176.8712436216</v>
       </c>
       <c r="N12" t="n">
-        <v>1652.790528558888</v>
+        <v>1661.3625885991</v>
       </c>
       <c r="O12" t="n">
-        <v>2077.304323397785</v>
+        <v>2082.357720987627</v>
       </c>
       <c r="P12" t="n">
-        <v>2398.681003309979</v>
+        <v>2400.910364072636</v>
       </c>
       <c r="Q12" t="n">
-        <v>2563.593606522383</v>
+        <v>2563.935173453942</v>
       </c>
       <c r="R12" t="n">
-        <v>2563.593606522383</v>
+        <v>2563.935173453942</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.235231358766</v>
+        <v>2435.296522938549</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.826486272543</v>
+        <v>2242.826957770087</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.762462941821</v>
+        <v>2014.761941728556</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.610354710078</v>
+        <v>1779.609833496814</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.372997981877</v>
+        <v>1525.372476768612</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.521497776344</v>
+        <v>1317.520976563079</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.76119901139</v>
+        <v>1109.760677798125</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>996.4284824786258</v>
+        <v>216.366754396245</v>
       </c>
       <c r="C13" t="n">
-        <v>827.4922995507189</v>
+        <v>216.3667543962449</v>
       </c>
       <c r="D13" t="n">
-        <v>677.3756601383832</v>
+        <v>216.3667543962449</v>
       </c>
       <c r="E13" t="n">
-        <v>529.4625665559901</v>
+        <v>68.45366081385185</v>
       </c>
       <c r="F13" t="n">
-        <v>382.5726190580797</v>
+        <v>68.45366081385185</v>
       </c>
       <c r="G13" t="n">
-        <v>214.9185063852567</v>
+        <v>68.45366081385185</v>
       </c>
       <c r="H13" t="n">
-        <v>69.13451983496873</v>
+        <v>68.45366081385185</v>
       </c>
       <c r="I13" t="n">
-        <v>69.13451983496873</v>
+        <v>68.45366081385185</v>
       </c>
       <c r="J13" t="n">
-        <v>117.6333845302559</v>
+        <v>116.0759486326624</v>
       </c>
       <c r="K13" t="n">
-        <v>327.1687542007388</v>
+        <v>324.1708332213177</v>
       </c>
       <c r="L13" t="n">
-        <v>650.8283214790592</v>
+        <v>645.9870755365542</v>
       </c>
       <c r="M13" t="n">
-        <v>1002.471077848613</v>
+        <v>995.6863041857672</v>
       </c>
       <c r="N13" t="n">
-        <v>1351.187171853758</v>
+        <v>1342.505083215763</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.266630488376</v>
+        <v>1646.832064381504</v>
       </c>
       <c r="P13" t="n">
-        <v>1895.649801981836</v>
+        <v>1883.715688650501</v>
       </c>
       <c r="Q13" t="n">
-        <v>1977.258873399822</v>
+        <v>1964.286551297851</v>
       </c>
       <c r="R13" t="n">
-        <v>1889.619222237872</v>
+        <v>1964.286551297851</v>
       </c>
       <c r="S13" t="n">
-        <v>1889.619222237872</v>
+        <v>1773.22933281794</v>
       </c>
       <c r="T13" t="n">
-        <v>1889.619222237872</v>
+        <v>1679.999906730484</v>
       </c>
       <c r="U13" t="n">
-        <v>1889.619222237872</v>
+        <v>1390.89900751088</v>
       </c>
       <c r="V13" t="n">
-        <v>1634.934734031985</v>
+        <v>1136.214519304993</v>
       </c>
       <c r="W13" t="n">
-        <v>1345.517563995025</v>
+        <v>846.7973492680321</v>
       </c>
       <c r="X13" t="n">
-        <v>1117.528013097007</v>
+        <v>618.8077983700148</v>
       </c>
       <c r="Y13" t="n">
-        <v>996.4284824786258</v>
+        <v>398.0152192264846</v>
       </c>
     </row>
     <row r="14">
@@ -5279,7 +5279,7 @@
         <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398594</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>696.7084350851715</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>527.7722521572646</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>377.6556127449288</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2351.089047197418</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2131.487582220359</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>2131.487582220359</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1876.803094014472</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1587.385923977512</v>
+        <v>1327.139029956955</v>
       </c>
       <c r="X16" t="n">
-        <v>1359.396373079494</v>
+        <v>1099.149479058941</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.603793935964</v>
+        <v>878.3568999154112</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,37 +5501,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5540,22 +5540,22 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,22 +5592,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>680.4481746984131</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>680.4481746984131</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5674,49 +5674,49 @@
         <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797788</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.10824923517</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258111</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602308</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396421</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359461</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1082.889218672183</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>862.0966395286529</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,22 +5768,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>680.4481746984129</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036841</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5929,31 +5929,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="23">
@@ -5984,31 +5984,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>275.900381799936</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,7 +6148,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797745</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,10 +6236,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,13 +6300,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270448</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,7 +6382,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K28" t="n">
         <v>435.7419440038343</v>
@@ -6397,7 +6397,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,61 +6449,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>991.7436897307822</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>822.8075068028753</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>672.6908673905396</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>524.7777738081464</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>377.8878263102361</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1173.392154561022</v>
       </c>
     </row>
     <row r="32">
@@ -6686,25 +6686,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M32" t="n">
         <v>2206.55866301478</v>
@@ -6719,16 +6719,16 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>979.2799367326786</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,19 +6947,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319331</v>
+        <v>653.7474797708873</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656825</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150031</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942664</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580124</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345486</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384031</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1284.178074642675</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>835.395944601127</v>
       </c>
     </row>
     <row r="38">
@@ -7166,55 +7166,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319331</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150031</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.221455958011</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7403,16 +7403,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
@@ -7424,25 +7424,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
         <v>656.9646031150021</v>
@@ -7555,13 +7555,13 @@
         <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
@@ -7573,7 +7573,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,13 +7582,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
@@ -7600,16 +7600,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7625,7 +7625,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7640,16 +7640,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,37 +7658,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,16 +7719,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319331</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150031</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942664</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580124</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345486</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384031</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7813,43 +7813,43 @@
         <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8058,10 @@
         <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>97.32166909127241</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>30.66562412546722</v>
+        <v>28.68426755042498</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>250.7763856054305</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>203.0587574957872</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>57.76599001655956</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8538,22 +8538,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>154.0169020165188</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071647</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>193.3273467878356</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22547,19 +22547,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917676</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8.451195978640309</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>111.1448866984959</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.84210979384</v>
       </c>
       <c r="H11" t="n">
-        <v>293.5064666836707</v>
+        <v>293.7923984650544</v>
       </c>
       <c r="I11" t="n">
-        <v>37.4311682965477</v>
+        <v>38.5075393451792</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,16 +23309,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.5694517141624</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9888026901329</v>
       </c>
       <c r="V11" t="n">
-        <v>228.2143297012353</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.9900953252795</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.4374944669912</v>
       </c>
       <c r="I13" t="n">
-        <v>94.90181089725732</v>
+        <v>95.27843509310358</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>87.32636930349084</v>
       </c>
       <c r="S13" t="n">
-        <v>188.9283909796833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.3428469572717</v>
+        <v>127.0992258235703</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2092071121801</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>98.69611803989694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>10.85445046951307</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>152.4862366927513</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,19 +23890,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.22910392194038</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>98.55338150863246</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,19 +24127,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>84.77391660561928</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>125.5559695740482</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194169</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>24.58839950885118</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>62.35543909864865</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,13 +25315,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>-1.534405116436919e-12</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1180147.401359751</v>
+        <v>1204825.760609735</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1206443.010907071</v>
+        <v>1206550.344731663</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1016099.879877247</v>
+        <v>1011569.517379965</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1180121.672990706</v>
+        <v>1180121.672990707</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1200269.669743408</v>
+        <v>1180121.672990706</v>
       </c>
     </row>
     <row r="14">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241206.6635282539</v>
+        <v>246312.5309592851</v>
       </c>
       <c r="C2" t="n">
-        <v>246312.5309592851</v>
+        <v>246312.5309592849</v>
       </c>
       <c r="D2" t="n">
-        <v>246312.5309592851</v>
+        <v>246312.530959285</v>
       </c>
       <c r="E2" t="n">
-        <v>208208.4365042173</v>
+        <v>207271.1201254691</v>
       </c>
       <c r="F2" t="n">
         <v>242143.9799070018</v>
       </c>
       <c r="G2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="H2" t="n">
-        <v>242143.9799070018</v>
+        <v>242143.9799070017</v>
       </c>
       <c r="I2" t="n">
         <v>242143.9799070018</v>
@@ -26338,22 +26338,22 @@
         <v>242143.9799070018</v>
       </c>
       <c r="K2" t="n">
+        <v>242143.9799070018</v>
+      </c>
+      <c r="L2" t="n">
+        <v>242143.9799070018</v>
+      </c>
+      <c r="M2" t="n">
         <v>242143.9799070017</v>
       </c>
-      <c r="L2" t="n">
-        <v>242143.9799070017</v>
-      </c>
-      <c r="M2" t="n">
-        <v>246312.5309592847</v>
-      </c>
       <c r="N2" t="n">
-        <v>246312.5309592847</v>
+        <v>246312.530959285</v>
       </c>
       <c r="O2" t="n">
         <v>246312.530959285</v>
       </c>
       <c r="P2" t="n">
-        <v>246312.5309592848</v>
+        <v>246312.530959285</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>152020.7532307881</v>
+        <v>162110.0813258156</v>
       </c>
       <c r="D3" t="n">
-        <v>247222.2934439955</v>
+        <v>237671.5214086565</v>
       </c>
       <c r="E3" t="n">
-        <v>213350.9676547303</v>
+        <v>205230.2108867389</v>
       </c>
       <c r="F3" t="n">
-        <v>287157.828419435</v>
+        <v>295086.0204034292</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911409</v>
       </c>
       <c r="K3" t="n">
-        <v>35345.33833031098</v>
+        <v>37691.14117278784</v>
       </c>
       <c r="L3" t="n">
-        <v>60624.68468409945</v>
+        <v>58317.86492715489</v>
       </c>
       <c r="M3" t="n">
-        <v>75148.90150689306</v>
+        <v>53600.27361953117</v>
       </c>
       <c r="N3" t="n">
-        <v>75566.54113414032</v>
+        <v>97078.76859608575</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>240618.4625687006</v>
+        <v>250332.6659748621</v>
       </c>
       <c r="C4" t="n">
-        <v>209328.581571255</v>
+        <v>206607.5272155392</v>
       </c>
       <c r="D4" t="n">
         <v>139134.5471223413</v>
       </c>
       <c r="E4" t="n">
-        <v>10397.30394159906</v>
+        <v>10392.89899193314</v>
       </c>
       <c r="F4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="H4" t="n">
         <v>10557.08828678121</v>
@@ -26439,25 +26439,25 @@
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678112</v>
       </c>
       <c r="L4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
-        <v>18547.94754987471</v>
+        <v>10557.08828678116</v>
       </c>
       <c r="N4" t="n">
-        <v>18547.94754987471</v>
+        <v>18547.94754987464</v>
       </c>
       <c r="O4" t="n">
-        <v>18547.9475498747</v>
+        <v>18547.94754987465</v>
       </c>
       <c r="P4" t="n">
-        <v>18547.9475498747</v>
+        <v>18547.94754987467</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>73974.91748651491</v>
+        <v>74700.12926702818</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>76882.50515531845</v>
+        <v>76213.65119418004</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26500,7 +26500,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
         <v>103164.1158539154</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-742547.5828359061</v>
+        <v>-747155.9188110364</v>
       </c>
       <c r="C6" t="n">
-        <v>-189011.721329273</v>
+        <v>-197105.2068490981</v>
       </c>
       <c r="D6" t="n">
-        <v>-232982.0820468965</v>
+        <v>-223431.3100115574</v>
       </c>
       <c r="E6" t="n">
-        <v>-92422.34024743049</v>
+        <v>-84890.98603766477</v>
       </c>
       <c r="F6" t="n">
-        <v>-156693.4666231215</v>
+        <v>-164656.3965325515</v>
       </c>
       <c r="G6" t="n">
-        <v>130464.3617963137</v>
+        <v>130429.6238708779</v>
       </c>
       <c r="H6" t="n">
-        <v>130464.3617963135</v>
+        <v>130429.6238708777</v>
       </c>
       <c r="I6" t="n">
-        <v>130464.3617963136</v>
+        <v>130429.6238708778</v>
       </c>
       <c r="J6" t="n">
-        <v>61465.20737719939</v>
+        <v>61430.46945176373</v>
       </c>
       <c r="K6" t="n">
-        <v>95119.02346600244</v>
+        <v>92738.48269808998</v>
       </c>
       <c r="L6" t="n">
-        <v>69839.67711221396</v>
+        <v>72111.75894372283</v>
       </c>
       <c r="M6" t="n">
-        <v>49451.56604860158</v>
+        <v>76829.35025134655</v>
       </c>
       <c r="N6" t="n">
-        <v>49033.92642135429</v>
+        <v>27521.69895940917</v>
       </c>
       <c r="O6" t="n">
         <v>124600.4675554949</v>
       </c>
       <c r="P6" t="n">
-        <v>124600.4675554947</v>
+        <v>124600.4675554949</v>
       </c>
     </row>
   </sheetData>
@@ -26716,13 +26716,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203976</v>
@@ -26738,13 +26738,13 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>732.2759402233561</v>
+        <v>740.1220381365832</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>1116.526150492762</v>
+        <v>1109.581145672139</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26790,13 +26790,13 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>401.0477300928578</v>
+        <v>410.1623163758334</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>864.181497937109</v>
+        <v>855.6707601731482</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26805,7 +26805,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26814,22 +26814,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26960,16 +26960,16 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>118.2209264538777</v>
+        <v>126.0670243671049</v>
       </c>
       <c r="D3" t="n">
-        <v>201.788951894183</v>
+        <v>193.9428539809561</v>
       </c>
       <c r="E3" t="n">
-        <v>182.4612583752232</v>
+        <v>175.5162535545996</v>
       </c>
       <c r="F3" t="n">
-        <v>251.4493498489119</v>
+        <v>258.3943546695352</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>137.3338500913516</v>
+        <v>146.4484363743272</v>
       </c>
       <c r="D4" t="n">
-        <v>239.537102007181</v>
+        <v>230.4225157242054</v>
       </c>
       <c r="E4" t="n">
-        <v>223.5966658370702</v>
+        <v>215.0859280731095</v>
       </c>
       <c r="F4" t="n">
-        <v>308.5267901625396</v>
+        <v>317.0375279265004</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>137.3338500913516</v>
+        <v>146.4484363743274</v>
       </c>
       <c r="L4" t="n">
-        <v>239.537102007181</v>
+        <v>230.4225157242054</v>
       </c>
       <c r="M4" t="n">
-        <v>223.5966658370702</v>
+        <v>215.0859280731095</v>
       </c>
       <c r="N4" t="n">
-        <v>308.5267901625396</v>
+        <v>317.0375279265004</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>137.3338500913516</v>
+        <v>146.4484363743272</v>
       </c>
       <c r="L4" t="n">
-        <v>239.537102007181</v>
+        <v>230.4225157242054</v>
       </c>
       <c r="M4" t="n">
-        <v>223.5966658370702</v>
+        <v>215.0859280731095</v>
       </c>
       <c r="N4" t="n">
-        <v>308.5267901625396</v>
+        <v>317.0375279265004</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>265.761275705051</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>156.5272303086468</v>
       </c>
       <c r="F2" t="n">
-        <v>134.7109697615649</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.1202946442038</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590681</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27461,22 +27461,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>71.37155219258156</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>62.55941539712575</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27518,10 +27518,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27558,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
@@ -27594,13 +27594,13 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>47.50525324786562</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>115.2482507379916</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>314.2939958098183</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>11.31118454700749</v>
+        <v>2.165056161868165</v>
       </c>
       <c r="H5" t="n">
-        <v>309.3263760944106</v>
+        <v>309.0033455406264</v>
       </c>
       <c r="I5" t="n">
-        <v>96.98415817156796</v>
+        <v>95.76813127790086</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>141.9377058160354</v>
+        <v>141.2189401629794</v>
       </c>
       <c r="T5" t="n">
-        <v>210.2092649276379</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1101470778149</v>
+        <v>251.1076237096418</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>112.3448612891747</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>138.8427161947207</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27701,7 +27701,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>72.11550219911913</v>
+        <v>96.86045623671573</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27743,13 +27743,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>142.1132009952677</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8366478302951</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27758,10 +27758,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6704817613347</v>
+        <v>166.6563330601797</v>
       </c>
       <c r="H7" t="n">
-        <v>150.4867484166454</v>
+        <v>150.3609536009219</v>
       </c>
       <c r="I7" t="n">
-        <v>115.739510824654</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>117.9190176010266</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>2.281288979270983</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.3034633314786</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>156.6034364315021</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>61.19451453879225</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>62.24326423680953</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>36.2365930228722</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>34.6626103930397</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,19 +28062,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-1.191140988188791e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28548,7 +28548,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>3.950617610826157e-12</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-8.30056023914949e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>4.277610813262826e-12</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>-8.336852623701547e-13</v>
       </c>
     </row>
     <row r="30">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30706,7 +30706,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.943822875269771</v>
+        <v>2.975364977433498</v>
       </c>
       <c r="H5" t="n">
-        <v>30.14842602135655</v>
+        <v>30.47145657514082</v>
       </c>
       <c r="I5" t="n">
-        <v>113.491731398838</v>
+        <v>114.707758292505</v>
       </c>
       <c r="J5" t="n">
-        <v>249.853286759928</v>
+        <v>252.5303832534466</v>
       </c>
       <c r="K5" t="n">
-        <v>374.4653090700974</v>
+        <v>378.4775827482067</v>
       </c>
       <c r="L5" t="n">
-        <v>464.5573283891348</v>
+        <v>469.5349086763372</v>
       </c>
       <c r="M5" t="n">
-        <v>516.9095384472135</v>
+        <v>522.4480555937702</v>
       </c>
       <c r="N5" t="n">
-        <v>525.2736751915738</v>
+        <v>530.9018113359031</v>
       </c>
       <c r="O5" t="n">
-        <v>496.00103647561</v>
+        <v>501.3155258415487</v>
       </c>
       <c r="P5" t="n">
-        <v>423.3254092423874</v>
+        <v>427.8612029611592</v>
       </c>
       <c r="Q5" t="n">
-        <v>317.8997525217887</v>
+        <v>321.3059447068219</v>
       </c>
       <c r="R5" t="n">
-        <v>184.9199136886649</v>
+        <v>186.9012702637071</v>
       </c>
       <c r="S5" t="n">
-        <v>67.08236377020998</v>
+        <v>67.80112942326591</v>
       </c>
       <c r="T5" t="n">
-        <v>12.88658463649343</v>
+        <v>13.02466018871515</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2355058300215816</v>
+        <v>0.2380291981946798</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.575084097838917</v>
+        <v>1.591960610331519</v>
       </c>
       <c r="H6" t="n">
-        <v>15.21199641860217</v>
+        <v>15.37498799978072</v>
       </c>
       <c r="I6" t="n">
-        <v>54.22986915805043</v>
+        <v>54.81092452237905</v>
       </c>
       <c r="J6" t="n">
-        <v>148.8109059278426</v>
+        <v>150.4053662594353</v>
       </c>
       <c r="K6" t="n">
-        <v>254.34154048305</v>
+        <v>257.0667271516471</v>
       </c>
       <c r="L6" t="n">
-        <v>341.9935888750684</v>
+        <v>345.6579386599204</v>
       </c>
       <c r="M6" t="n">
-        <v>399.090387421729</v>
+        <v>403.3665107844378</v>
       </c>
       <c r="N6" t="n">
-        <v>409.6531224462717</v>
+        <v>414.0424220703891</v>
       </c>
       <c r="O6" t="n">
-        <v>374.752574804683</v>
+        <v>378.7679264414645</v>
       </c>
       <c r="P6" t="n">
-        <v>300.771980051363</v>
+        <v>303.9946537395336</v>
       </c>
       <c r="Q6" t="n">
-        <v>201.0581034364203</v>
+        <v>203.2123754521427</v>
       </c>
       <c r="R6" t="n">
-        <v>97.79337933775315</v>
+        <v>98.84120350812714</v>
       </c>
       <c r="S6" t="n">
-        <v>29.25649629099916</v>
+        <v>29.56997010857008</v>
       </c>
       <c r="T6" t="n">
-        <v>6.348694236464755</v>
+        <v>6.416718424976602</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1036239538051919</v>
+        <v>0.1047342506797052</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.320497597124085</v>
+        <v>1.334646298279084</v>
       </c>
       <c r="H7" t="n">
-        <v>11.74042409079414</v>
+        <v>11.86621890651769</v>
       </c>
       <c r="I7" t="n">
-        <v>39.7109641026043</v>
+        <v>40.13645413370193</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>94.35949328833127</v>
       </c>
       <c r="K7" t="n">
-        <v>153.4178117385981</v>
+        <v>155.0616335636972</v>
       </c>
       <c r="L7" t="n">
-        <v>196.3219791215207</v>
+        <v>198.4255051096013</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9940006110054</v>
+        <v>209.2118738293295</v>
       </c>
       <c r="N7" t="n">
-        <v>202.0721459308157</v>
+        <v>204.2372830811986</v>
       </c>
       <c r="O7" t="n">
-        <v>186.6463330916843</v>
+        <v>188.6461876876656</v>
       </c>
       <c r="P7" t="n">
-        <v>159.7081821103529</v>
+        <v>161.4194032027721</v>
       </c>
       <c r="Q7" t="n">
-        <v>110.5736669737268</v>
+        <v>111.7584277586241</v>
       </c>
       <c r="R7" t="n">
-        <v>59.37437377614292</v>
+        <v>60.01055082989409</v>
       </c>
       <c r="S7" t="n">
-        <v>23.01267176078972</v>
+        <v>23.25924503455458</v>
       </c>
       <c r="T7" t="n">
-        <v>5.642126096802905</v>
+        <v>5.702579638101541</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07202714166131378</v>
+        <v>0.07279888899704105</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.488547338664368</v>
+        <v>4.460627721295028</v>
       </c>
       <c r="H11" t="n">
-        <v>45.96833543209647</v>
+        <v>45.68240365071271</v>
       </c>
       <c r="I11" t="n">
-        <v>173.0447212738582</v>
+        <v>171.9683502252267</v>
       </c>
       <c r="J11" t="n">
-        <v>380.9598446849652</v>
+        <v>378.5902020602642</v>
       </c>
       <c r="K11" t="n">
-        <v>570.960053530628</v>
+        <v>567.4085735026829</v>
       </c>
       <c r="L11" t="n">
-        <v>708.3264341462778</v>
+        <v>703.9205091282657</v>
       </c>
       <c r="M11" t="n">
-        <v>788.1496378802502</v>
+        <v>783.2471973668461</v>
       </c>
       <c r="N11" t="n">
-        <v>800.9027230062304</v>
+        <v>795.9209558799756</v>
       </c>
       <c r="O11" t="n">
-        <v>756.2697304073865</v>
+        <v>751.5655889763482</v>
       </c>
       <c r="P11" t="n">
-        <v>645.4587179841099</v>
+        <v>641.4438421068771</v>
       </c>
       <c r="Q11" t="n">
-        <v>484.7126164181921</v>
+        <v>481.6976118379987</v>
       </c>
       <c r="R11" t="n">
-        <v>281.9537117623759</v>
+        <v>280.199906097799</v>
       </c>
       <c r="S11" t="n">
-        <v>102.2827724798144</v>
+        <v>101.6465541990105</v>
       </c>
       <c r="T11" t="n">
-        <v>19.64861597500328</v>
+        <v>19.52639784996899</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3590837870931494</v>
+        <v>0.3568502177036021</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.401584550116508</v>
+        <v>2.386646237860827</v>
       </c>
       <c r="H12" t="n">
-        <v>23.19425078665154</v>
+        <v>23.0499781393401</v>
       </c>
       <c r="I12" t="n">
-        <v>82.68613472988855</v>
+        <v>82.171811259682</v>
       </c>
       <c r="J12" t="n">
-        <v>133.9903078033315</v>
+        <v>225.4857307445618</v>
       </c>
       <c r="K12" t="n">
-        <v>387.8032385159626</v>
+        <v>316.5679459460062</v>
       </c>
       <c r="L12" t="n">
-        <v>521.4493120768321</v>
+        <v>518.2057982688608</v>
       </c>
       <c r="M12" t="n">
-        <v>608.5067520185554</v>
+        <v>604.7217243913157</v>
       </c>
       <c r="N12" t="n">
-        <v>624.6121150761351</v>
+        <v>620.7269090303035</v>
       </c>
       <c r="O12" t="n">
-        <v>571.3980574130271</v>
+        <v>567.8438529177031</v>
       </c>
       <c r="P12" t="n">
-        <v>458.5973164165462</v>
+        <v>455.7447539648452</v>
       </c>
       <c r="Q12" t="n">
-        <v>306.5601611692581</v>
+        <v>304.6532987136032</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>44.60837969185703</v>
+        <v>44.33090709359911</v>
       </c>
       <c r="T12" t="n">
-        <v>9.680071059460833</v>
+        <v>9.619859178044296</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1579989835602966</v>
+        <v>0.157016199859265</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.013407812363997</v>
+        <v>2.000884033179267</v>
       </c>
       <c r="H13" t="n">
-        <v>17.90102582265446</v>
+        <v>17.7896780404484</v>
       </c>
       <c r="I13" t="n">
-        <v>60.54866403000096</v>
+        <v>60.1720398341547</v>
       </c>
       <c r="J13" t="n">
-        <v>142.3479323341346</v>
+        <v>141.4625011457742</v>
       </c>
       <c r="K13" t="n">
-        <v>233.9213803819262</v>
+        <v>232.4663449457366</v>
       </c>
       <c r="L13" t="n">
-        <v>299.3388305763711</v>
+        <v>297.4768861692158</v>
       </c>
       <c r="M13" t="n">
-        <v>315.6108264417491</v>
+        <v>313.6476671282736</v>
       </c>
       <c r="N13" t="n">
-        <v>308.1063064138472</v>
+        <v>306.1898266409693</v>
       </c>
       <c r="O13" t="n">
-        <v>284.5860424239586</v>
+        <v>282.8158631624659</v>
       </c>
       <c r="P13" t="n">
-        <v>243.5125230517328</v>
+        <v>241.9978288856087</v>
       </c>
       <c r="Q13" t="n">
-        <v>168.5954487244071</v>
+        <v>167.546752996493</v>
       </c>
       <c r="R13" t="n">
-        <v>90.53013672683936</v>
+        <v>89.96702207367865</v>
       </c>
       <c r="S13" t="n">
-        <v>35.08820705728893</v>
+        <v>34.86995174186048</v>
       </c>
       <c r="T13" t="n">
-        <v>8.602742471009805</v>
+        <v>8.549231778129592</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1098222443107636</v>
+        <v>0.1091391290825056</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422587</v>
@@ -32087,16 +32087,16 @@
         <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>746.4857620875786</v>
       </c>
       <c r="O15" t="n">
-        <v>164.9290651940682</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,25 +32312,25 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>575.5951359912044</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32549,13 +32549,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
@@ -32564,10 +32564,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>321.1112257697157</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,16 +33026,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>364.3208035245835</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,16 +34448,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089029</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>245.5483596572287</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>68.80738223324167</v>
+        <v>71.4844787267603</v>
       </c>
       <c r="K5" t="n">
-        <v>154.3754580251169</v>
+        <v>158.3877317032261</v>
       </c>
       <c r="L5" t="n">
-        <v>228.7909134191476</v>
+        <v>233.7684937063499</v>
       </c>
       <c r="M5" t="n">
-        <v>286.5633052199408</v>
+        <v>292.1018223664975</v>
       </c>
       <c r="N5" t="n">
-        <v>295.8606115949829</v>
+        <v>301.4887477393121</v>
       </c>
       <c r="O5" t="n">
-        <v>265.9028250539233</v>
+        <v>271.217314419862</v>
       </c>
       <c r="P5" t="n">
-        <v>192.0924134871179</v>
+        <v>196.6282072058896</v>
       </c>
       <c r="Q5" t="n">
-        <v>95.59406264733926</v>
+        <v>99.00025483237241</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>21.97327926117592</v>
+        <v>23.56773959276862</v>
       </c>
       <c r="K6" t="n">
-        <v>367.2764871141215</v>
+        <v>119.2252881772881</v>
       </c>
       <c r="L6" t="n">
-        <v>203.4392090951942</v>
+        <v>410.1623163758334</v>
       </c>
       <c r="M6" t="n">
-        <v>256.9563534997106</v>
+        <v>261.2324768624195</v>
       </c>
       <c r="N6" t="n">
-        <v>278.3114103629383</v>
+        <v>282.7007099870558</v>
       </c>
       <c r="O6" t="n">
-        <v>232.1563303602385</v>
+        <v>293.9376720135796</v>
       </c>
       <c r="P6" t="n">
-        <v>166.7975726370328</v>
+        <v>170.0202463252034</v>
       </c>
       <c r="Q6" t="n">
-        <v>61.07632935039882</v>
+        <v>63.23060136612114</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.00031317165849</v>
       </c>
       <c r="K7" t="n">
-        <v>131.1483199127153</v>
+        <v>132.7921417378144</v>
       </c>
       <c r="L7" t="n">
-        <v>223.9120043818369</v>
+        <v>226.0155303699175</v>
       </c>
       <c r="M7" t="n">
-        <v>246.5778775728459</v>
+        <v>248.7957507911701</v>
       </c>
       <c r="N7" t="n">
-        <v>246.2043183100443</v>
+        <v>248.3694554604272</v>
       </c>
       <c r="O7" t="n">
-        <v>211.231461005724</v>
+        <v>213.2313156017052</v>
       </c>
       <c r="P7" t="n">
-        <v>156.9867413752463</v>
+        <v>158.6979624676656</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.41162372203237</v>
+        <v>25.59638450692968</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>520.9482342985593</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>443.0068759113678</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>199.9139401582789</v>
+        <v>197.5442975335779</v>
       </c>
       <c r="K11" t="n">
-        <v>350.8702024856474</v>
+        <v>347.3187224577023</v>
       </c>
       <c r="L11" t="n">
-        <v>472.5600191762906</v>
+        <v>468.1540941582785</v>
       </c>
       <c r="M11" t="n">
-        <v>557.8034046529775</v>
+        <v>552.9009641395734</v>
       </c>
       <c r="N11" t="n">
-        <v>571.4896594096394</v>
+        <v>566.5078922833848</v>
       </c>
       <c r="O11" t="n">
-        <v>526.1715189856998</v>
+        <v>521.4673775546614</v>
       </c>
       <c r="P11" t="n">
-        <v>414.2257222288403</v>
+        <v>410.2108463516076</v>
       </c>
       <c r="Q11" t="n">
-        <v>262.4069265437425</v>
+        <v>259.3919219635493</v>
       </c>
       <c r="R11" t="n">
-        <v>66.36817394824374</v>
+        <v>64.61436828366692</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>7.152681136664792</v>
+        <v>98.64810407789508</v>
       </c>
       <c r="K12" t="n">
-        <v>249.9617995416036</v>
+        <v>178.7265069716472</v>
       </c>
       <c r="L12" t="n">
-        <v>382.894932296958</v>
+        <v>379.6514184889866</v>
       </c>
       <c r="M12" t="n">
-        <v>466.3727180965371</v>
+        <v>462.5876904692973</v>
       </c>
       <c r="N12" t="n">
-        <v>493.2704029928018</v>
+        <v>489.3851969469703</v>
       </c>
       <c r="O12" t="n">
-        <v>428.8018129685827</v>
+        <v>425.2476084732587</v>
       </c>
       <c r="P12" t="n">
-        <v>324.6229090022159</v>
+        <v>321.7703465505149</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.5783870832366</v>
+        <v>164.6715246275817</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>48.98875221746184</v>
+        <v>48.10332102910138</v>
       </c>
       <c r="K13" t="n">
-        <v>211.6518885560433</v>
+        <v>210.1968531198537</v>
       </c>
       <c r="L13" t="n">
-        <v>326.9288558366873</v>
+        <v>325.066911429532</v>
       </c>
       <c r="M13" t="n">
-        <v>355.1947034035897</v>
+        <v>353.2315440901141</v>
       </c>
       <c r="N13" t="n">
-        <v>352.2384787930758</v>
+        <v>350.3219990201978</v>
       </c>
       <c r="O13" t="n">
-        <v>309.1711703379983</v>
+        <v>307.4009910765056</v>
       </c>
       <c r="P13" t="n">
-        <v>240.7910823166263</v>
+        <v>239.2763881505022</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.43340547271272</v>
+        <v>81.3847097447986</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678997</v>
@@ -35735,16 +35735,16 @@
         <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>615.1440500042453</v>
       </c>
       <c r="O15" t="n">
-        <v>22.33282074962379</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691861</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191358</v>
       </c>
       <c r="M19" t="n">
         <v>426.2724270010452</v>
@@ -36060,7 +36060,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998997</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,10 +36212,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,28 +36431,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>187.1368183553855</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,13 +36677,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295339</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>224.339029438562</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,16 +37862,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
         <v>397.5465471980852</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,13 +38099,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K46" t="n">
         <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111713</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986648</v>
       </c>
       <c r="Q46" t="n">
         <v>144.6869047919381</v>
